--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H2">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I2">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J2">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N2">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O2">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P2">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q2">
-        <v>100.6272327388876</v>
+        <v>11.43929251398555</v>
       </c>
       <c r="R2">
-        <v>905.645094649988</v>
+        <v>102.95363262587</v>
       </c>
       <c r="S2">
-        <v>0.03025754186396882</v>
+        <v>0.008163198642496768</v>
       </c>
       <c r="T2">
-        <v>0.03025754186396882</v>
+        <v>0.008163198642496766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H3">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I3">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J3">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.71831</v>
       </c>
       <c r="O3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q3">
-        <v>41.38815138336222</v>
+        <v>45.45381131969889</v>
       </c>
       <c r="R3">
-        <v>372.49336245026</v>
+        <v>409.08430187729</v>
       </c>
       <c r="S3">
-        <v>0.01244497825358966</v>
+        <v>0.03243631460666212</v>
       </c>
       <c r="T3">
-        <v>0.01244497825358966</v>
+        <v>0.03243631460666211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H4">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I4">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J4">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>27.368585</v>
       </c>
       <c r="O4">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P4">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q4">
-        <v>13.37060594254556</v>
+        <v>14.68403345955722</v>
       </c>
       <c r="R4">
-        <v>120.33545348291</v>
+        <v>132.156301136015</v>
       </c>
       <c r="S4">
-        <v>0.004020399429078793</v>
+        <v>0.01047867967856268</v>
       </c>
       <c r="T4">
-        <v>0.004020399429078793</v>
+        <v>0.01047867967856268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I5">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J5">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N5">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O5">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P5">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q5">
-        <v>1296.439021738134</v>
+        <v>134.1965819533044</v>
       </c>
       <c r="R5">
-        <v>11667.95119564321</v>
+        <v>1207.76923757974</v>
       </c>
       <c r="S5">
-        <v>0.3898254667910092</v>
+        <v>0.0957640828127795</v>
       </c>
       <c r="T5">
-        <v>0.3898254667910093</v>
+        <v>0.09576408281277948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I6">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J6">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.71831</v>
       </c>
       <c r="O6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q6">
         <v>533.2275670367312</v>
@@ -818,10 +818,10 @@
         <v>4799.04810333058</v>
       </c>
       <c r="S6">
-        <v>0.1603358752247697</v>
+        <v>0.3805167623831947</v>
       </c>
       <c r="T6">
-        <v>0.1603358752247697</v>
+        <v>0.3805167623831946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I7">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J7">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>27.368585</v>
       </c>
       <c r="O7">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P7">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q7">
         <v>172.2612737764478</v>
@@ -880,10 +880,10 @@
         <v>1550.35146398803</v>
       </c>
       <c r="S7">
-        <v>0.05179713841834785</v>
+        <v>0.122927444553713</v>
       </c>
       <c r="T7">
-        <v>0.05179713841834785</v>
+        <v>0.1229274445537129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>11.020243</v>
       </c>
       <c r="H8">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N8">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O8">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P8">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q8">
-        <v>756.6354772489846</v>
+        <v>78.32060986199666</v>
       </c>
       <c r="R8">
-        <v>6809.719295240861</v>
+        <v>704.8854887579699</v>
       </c>
       <c r="S8">
-        <v>0.2275122648759652</v>
+        <v>0.05589040540079833</v>
       </c>
       <c r="T8">
-        <v>0.2275122648759651</v>
+        <v>0.05589040540079832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>11.020243</v>
       </c>
       <c r="H9">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>84.71831</v>
       </c>
       <c r="O9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q9">
-        <v>311.2054542497766</v>
+        <v>311.2054542497767</v>
       </c>
       <c r="R9">
         <v>2800.84908824799</v>
       </c>
       <c r="S9">
-        <v>0.09357618016478655</v>
+        <v>0.2220794632678081</v>
       </c>
       <c r="T9">
-        <v>0.09357618016478655</v>
+        <v>0.2220794632678081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>11.020243</v>
       </c>
       <c r="H10">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>27.368585</v>
       </c>
       <c r="O10">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P10">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q10">
         <v>100.5361524220517</v>
       </c>
       <c r="R10">
-        <v>904.8253717984649</v>
+        <v>904.8253717984651</v>
       </c>
       <c r="S10">
-        <v>0.03023015497848429</v>
+        <v>0.071743648653985</v>
       </c>
       <c r="T10">
-        <v>0.03023015497848428</v>
+        <v>0.071743648653985</v>
       </c>
     </row>
   </sheetData>
